--- a/biology/Zoologie/Cryptoclidus/Cryptoclidus.xlsx
+++ b/biology/Zoologie/Cryptoclidus/Cryptoclidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptocleidus, Muraenosaurus (Cryptoclidus)
-Cryptoclidus (parfois orthographié par erreur Cryptocleidus[1]) est un genre éteint de plésiosaures du Jurassique supérieur en Angleterre, en France, en Argentine et à Cuba (il y a entre 166 et 145 millions d'années). Son nom signifie « clavicule cachée ».
+Cryptoclidus (parfois orthographié par erreur Cryptocleidus) est un genre éteint de plésiosaures du Jurassique supérieur en Angleterre, en France, en Argentine et à Cuba (il y a entre 166 et 145 millions d'années). Son nom signifie « clavicule cachée ».
 Plusieurs squelettes restaurés peuvent être observés dans les grands musées d'Europe (Paris, Londres, Glasgow) et à l'American Museum of Natural History de New York.
 </t>
         </is>
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptoclidus était un plésiosaure de taille moyenne (environ 5,5 m pour 1 tonne)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptoclidus était un plésiosaure de taille moyenne (environ 5,5 m pour 1 tonne).
 Plusieurs espèces sont connues, dont l'espèce type : Cryptoclidus eurymerus Phillips, 1871 (spécimen type : BMNH 22656, un squelette complet). Les autres sont C. beaugrandi (Vadet &amp; Rose, 1986), C. cuervoi (Torre &amp; Rojas, 1949), C. oxoniensis (Phillips, 1871), C. richardsoni (Lydekker, 1889) et C. vignalensis (Torre &amp; Cuervo, 1939).
-La conformation fragile de la tête et des dents interdit une morsure puissante et suggère un régime alimentaire à base de petits poissons ou d'animaux à corps mou tels que les calmars. Cryptoclidus a peut-être utilisé ses longues dents entremêlées pour capturer de petites proies par filtration de l'eau ou tamisage de sédiments[3].
-La taille et la forme des narines et des ouvertures nasales ont conduit Brown et Cruickshank (1994) à affirmer qu'elles étaient utilisées pour échantillonner l'eau de mer pour détecter les odeurs et les traces chimiques[4].
+La conformation fragile de la tête et des dents interdit une morsure puissante et suggère un régime alimentaire à base de petits poissons ou d'animaux à corps mou tels que les calmars. Cryptoclidus a peut-être utilisé ses longues dents entremêlées pour capturer de petites proies par filtration de l'eau ou tamisage de sédiments.
+La taille et la forme des narines et des ouvertures nasales ont conduit Brown et Cruickshank (1994) à affirmer qu'elles étaient utilisées pour échantillonner l'eau de mer pour détecter les odeurs et les traces chimiques.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Cladogramme dans Cryptoclididae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous, le cladogramme des Cryptoclididae basé d'après Roberts et al. (2020)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, le cladogramme des Cryptoclididae basé d'après Roberts et al. (2020) :
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il apparaît dans la série de la BBC Sur la terre des dinosaures.
 </t>
